--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/17.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/17.xlsx
@@ -479,13 +479,13 @@
         <v>-21.02485596807887</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.66620382616567</v>
+        <v>-8.908280505709184</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.950156774679435</v>
+        <v>-2.892537549872999</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.335417244807824</v>
+        <v>-5.43072920949559</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.76775491346561</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.918924547919508</v>
+        <v>-9.183179588476907</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.022452470971447</v>
+        <v>-2.929798243760552</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.253891475012396</v>
+        <v>-5.356024529480702</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.4163429010802</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.741474658556632</v>
+        <v>-10.00648905267885</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.900929715994546</v>
+        <v>-2.802501783230449</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.120467816752366</v>
+        <v>-5.222980548003081</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.98285131341381</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.5223388769457</v>
+        <v>-10.77512506021375</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.815436978438075</v>
+        <v>-2.728726656717323</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.35055194689286</v>
+        <v>-5.445405680981166</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-19.45852571856818</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.30483963318998</v>
+        <v>-11.56998495034062</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.66165478925916</v>
+        <v>-2.576201328611214</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.90144668251313</v>
+        <v>-4.991233695401688</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.84276951182715</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.98273288972888</v>
+        <v>-12.25469929666005</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.641034412283441</v>
+        <v>-2.561407026400063</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.020848484429672</v>
+        <v>-5.095173487662152</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-18.14625249251231</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.49457646932616</v>
+        <v>-12.77815574887794</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.515911274025065</v>
+        <v>-2.438090625933846</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.585031907434295</v>
+        <v>-4.641931055584436</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-17.39845713324669</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.45367929860248</v>
+        <v>-13.74029599241355</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.260467353280148</v>
+        <v>-2.181114905756446</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.503558506850234</v>
+        <v>-4.535346618149944</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.63089505535792</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.208201803674</v>
+        <v>-14.50081477218658</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.225144320213171</v>
+        <v>-2.162877327897922</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.104086162543488</v>
+        <v>-4.123475863052084</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.86622583912699</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.88966925888868</v>
+        <v>-15.16942558601068</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.061660734628538</v>
+        <v>-2.000558957266202</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.892305071775727</v>
+        <v>-3.908932296384719</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.13081950573029</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.53654684999553</v>
+        <v>-15.81736365364771</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.069254270276739</v>
+        <v>-2.024426225346669</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.387649166438554</v>
+        <v>-3.400767653885964</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.44506331366422</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.4908971733403</v>
+        <v>-16.77888855894975</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.889562413774049</v>
+        <v>-1.83374992675977</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.746558373187753</v>
+        <v>-2.759166260824336</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.84643365565644</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.13196178198542</v>
+        <v>-17.39599425339451</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.636972615048628</v>
+        <v>-1.579536682481975</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.368897805415323</v>
+        <v>-2.387842367627301</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.34956304198672</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.03128515648643</v>
+        <v>-18.29560565855803</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.476893028202843</v>
+        <v>-1.435586812737197</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.78922300479506</v>
+        <v>-1.825331576032541</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.95289129174297</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.92960042366862</v>
+        <v>-19.18834360472965</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.320099609370331</v>
+        <v>-1.277025933021053</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.404741347242091</v>
+        <v>-1.411025652606119</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.65702584886255</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.71368534855675</v>
+        <v>-19.98264052583433</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.077564699227356</v>
+        <v>-1.046954895183401</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8931465213988027</v>
+        <v>-0.8964195971092342</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.45801278235613</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.68094468250347</v>
+        <v>-20.93864047933717</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9800401353593386</v>
+        <v>-0.9643555565549509</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.5187328447311206</v>
+        <v>-0.5306337480142497</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.35051303270681</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.51179531314225</v>
+        <v>-21.77495060026095</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8203140406902806</v>
+        <v>-0.815181857976324</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1595193316626825</v>
+        <v>-0.1570972556369632</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.31276941465605</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.15124956853784</v>
+        <v>-22.41481071704462</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5693607798200754</v>
+        <v>-0.5668863345829891</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2323071077844953</v>
+        <v>0.2189922357944599</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.32115428928962</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.78352924197615</v>
+        <v>-23.0381352553392</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2676093839239729</v>
+        <v>-0.2702147521894764</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5602431093640499</v>
+        <v>0.559902709490165</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.35412378339933</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.41689557655034</v>
+        <v>-23.67874163338486</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01810936866919923</v>
+        <v>-0.04932141864387418</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5513272511288344</v>
+        <v>0.5828273317660273</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.40316664051294</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.91615745311672</v>
+        <v>-24.15592988736009</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08936534535853007</v>
+        <v>0.04762708389910736</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8129114619065212</v>
+        <v>0.8461659111245055</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.45425192889816</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.27978307224282</v>
+        <v>-24.52471387380583</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05935778724529391</v>
+        <v>0.02540944597669822</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7530141764056245</v>
+        <v>0.7960354835435364</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-12.48710970964003</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.56797084239489</v>
+        <v>-24.81036173720661</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3427930514658216</v>
+        <v>0.3120916013019739</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7332709837203015</v>
+        <v>0.7681881553991849</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.49361666674172</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.58283060612025</v>
+        <v>-24.81740539613546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3521933249061809</v>
+        <v>0.3237830277396353</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5892818370669982</v>
+        <v>0.6320805750566008</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.46862273671614</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.524452027749</v>
+        <v>-24.76379241599859</v>
       </c>
       <c r="F27" t="n">
-        <v>0.172291991558023</v>
+        <v>0.1310774222122693</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5574020796473953</v>
+        <v>0.6078074455880407</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.41734398608883</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.64319921452345</v>
+        <v>-24.85939241134887</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3027567893758232</v>
+        <v>0.2767816605378387</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2543807303756454</v>
+        <v>0.3080198951181971</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.33816143417206</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.67065377358255</v>
+        <v>-24.89928465810761</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2740191846382345</v>
+        <v>0.251775362110142</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1407657263151466</v>
+        <v>0.198528966452842</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.22822278164061</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.4685086177063</v>
+        <v>-24.69456031857154</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1274508543251112</v>
+        <v>0.1007949257393569</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.05911446116948528</v>
+        <v>0.009607036446734855</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.09213484459161</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.98833531868316</v>
+        <v>-24.22136521696304</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1311952529378448</v>
+        <v>0.1073672617659034</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5402827752086017</v>
+        <v>-0.4883717944411579</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.94100163654985</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.04434419024006</v>
+        <v>-24.27013404504847</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1795844042408644</v>
+        <v>0.1570525510502538</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.642023060591655</v>
+        <v>-0.6047099974927357</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.78429766566619</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.64138929337742</v>
+        <v>-23.87682817538018</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1084539229017667</v>
+        <v>0.08935225305568834</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.126333527312786</v>
+        <v>-1.105700058034226</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.62281573503379</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.08298948487496</v>
+        <v>-23.29460037570577</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04248723656049317</v>
+        <v>-0.04045792962002563</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.2085139122503</v>
+        <v>-1.184699013381201</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.46114933353989</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.73049232316432</v>
+        <v>-22.93136752566492</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2401941017733985</v>
+        <v>-0.2380862410158806</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.240943546389256</v>
+        <v>-1.246638698125407</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.30173471229426</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.01925297128755</v>
+        <v>-22.20204770356374</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3565453971278181</v>
+        <v>-0.3545291824901923</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.460383634319426</v>
+        <v>-1.443913517344535</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.15766720717233</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.21405016191572</v>
+        <v>-21.40510613728503</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2918825133925331</v>
+        <v>-0.2912278982504468</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.5832156195805</v>
+        <v>-1.566575302668666</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.03164025609109</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.84440208348243</v>
+        <v>-21.03180530635889</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3621358104412351</v>
+        <v>-0.3715884530929613</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.84140892392218</v>
+        <v>-1.823079699943764</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.91900455749728</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.19106998707461</v>
+        <v>-20.37601185701683</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.197251348452537</v>
+        <v>-0.2134988962791191</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.997141866224512</v>
+        <v>-1.984677993919189</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.82352468724753</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.87671070354192</v>
+        <v>-20.03747109013548</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4778193983507267</v>
+        <v>-0.4807127972787481</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.219121860905977</v>
+        <v>-2.202848128473712</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.75044055631298</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.35348991277518</v>
+        <v>-19.49949527406611</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1924857502181487</v>
+        <v>-0.1968847639729687</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.054918198665049</v>
+        <v>-2.058322197403898</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.70686921045909</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.76908879082906</v>
+        <v>-18.92407547186941</v>
       </c>
       <c r="F42" t="n">
-        <v>0.050559759735654</v>
+        <v>0.03581782673587044</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.043920664277999</v>
+        <v>-2.093186999871414</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.69048687137489</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.86695057121708</v>
+        <v>-18.0315600948461</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05035028289018638</v>
+        <v>0.05024554446745257</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.919792541035594</v>
+        <v>-1.995570789883505</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.69939562491795</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.52994160376821</v>
+        <v>-17.68617205357853</v>
       </c>
       <c r="F44" t="n">
         <v>0.08238714794389007</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.110927070221953</v>
+        <v>-2.188446595347813</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.73290233329162</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.9952781403178</v>
+        <v>-17.14098237864337</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04879229885202098</v>
+        <v>0.05220938989371148</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.160114851998318</v>
+        <v>-2.246746619902019</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.79802091234238</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.60910757569825</v>
+        <v>-16.71735473559364</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08038402560910599</v>
+        <v>0.09487720485489674</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.108491901893392</v>
+        <v>-2.17120403250526</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.89394672080074</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.97399996484612</v>
+        <v>-16.08881946076806</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08897257627327829</v>
+        <v>0.1115960755837809</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.401366716462804</v>
+        <v>-2.494741020329994</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.00884881217586</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.32268408307593</v>
+        <v>-15.42926852051042</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07643015015090471</v>
+        <v>0.1021696175377382</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.331624019224929</v>
+        <v>-2.417758279620645</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.13977240275278</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.77953680738408</v>
+        <v>-14.87390612626724</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2135065609037766</v>
+        <v>0.2281830323893516</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.532499221725532</v>
+        <v>-2.638389767109413</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.28248931957477</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.11418597696756</v>
+        <v>-14.19999292979224</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3704963642789139</v>
+        <v>0.3719234252886621</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.455883065495752</v>
+        <v>-2.60135164237017</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.43796148154817</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.34142589403752</v>
+        <v>-13.40408565543802</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3522064172090226</v>
+        <v>0.3620649212488423</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.524120147906828</v>
+        <v>-2.678779521376138</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.59881235712852</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.74075103965913</v>
+        <v>-12.79622312679953</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4448475521170763</v>
+        <v>0.4466411976063928</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.529304699832151</v>
+        <v>-2.675166045791821</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.75492991175435</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.11093271915506</v>
+        <v>-12.16468971462318</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4931974265115706</v>
+        <v>0.5000839778063185</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.554389552076898</v>
+        <v>-2.713618139237971</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.90358749826969</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.72392424715363</v>
+        <v>-11.78243374855331</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3906192337466469</v>
+        <v>0.4007788607518263</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.65649642193952</v>
+        <v>-2.822637745001024</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.0470538766759</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.27225289141693</v>
+        <v>-11.30047989634369</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1283018540098234</v>
+        <v>0.1470238470734917</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.121142249792378</v>
+        <v>-3.306529258031219</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.18542302416092</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.85413710786356</v>
+        <v>-10.88983981771295</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2189791434916182</v>
+        <v>0.2236007263947474</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.187428579080037</v>
+        <v>-3.387478966501611</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.31023795717259</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.09247929774331</v>
+        <v>-10.12475182424816</v>
       </c>
       <c r="F57" t="n">
-        <v>0.178694127647627</v>
+        <v>0.1814958804557564</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.530119605962217</v>
+        <v>-3.749795355343539</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.42005004538759</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.791159947840983</v>
+        <v>-9.826273504062492</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.003380527972257405</v>
+        <v>0.009685590263785212</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.576767480987287</v>
+        <v>-3.771659501089221</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.5133842199716</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.235404784512554</v>
+        <v>-9.250513301991905</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09237657501212705</v>
+        <v>0.08603990043673164</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.848131641987743</v>
+        <v>-4.057412102912735</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.59776674954046</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.902009292647998</v>
+        <v>-8.918112825143321</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.05019860293426982</v>
+        <v>-0.0440583129015003</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.779410144371523</v>
+        <v>-3.977863270846407</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.67178251758468</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.375868918347553</v>
+        <v>-8.379600224657445</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.07029528779631934</v>
+        <v>-0.06838381158142734</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.173357536879061</v>
+        <v>-4.379862429601606</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.72728858508885</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.884724269543042</v>
+        <v>-7.89624549604376</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.0208063830545948</v>
+        <v>-0.02829518028006211</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.140600595169062</v>
+        <v>-4.353455254769845</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.76574216105628</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.393016651716335</v>
+        <v>-7.427842177275327</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.0566138313267156</v>
+        <v>-0.04519734324873047</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.142263317629961</v>
+        <v>-4.347380426251283</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.79003887413054</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.070147371336529</v>
+        <v>-7.096803299922283</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2226242313598021</v>
+        <v>-0.2121111121778961</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.383056951494987</v>
+        <v>-4.561688331467497</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.80442505492611</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.678478039523451</v>
+        <v>-6.714992472149025</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.178660278417286</v>
+        <v>-0.1650835603704161</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.657288326817781</v>
+        <v>-4.829635401426263</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.80401023373977</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.427590240167455</v>
+        <v>-6.464471257272598</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.289015299070195</v>
+        <v>-0.2683032759745844</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.639927933249653</v>
+        <v>-4.808020009434573</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.78604696237678</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.280341110106562</v>
+        <v>-6.315402297116704</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3483103386403724</v>
+        <v>-0.3388969728971714</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.737046635729576</v>
+        <v>-4.899914883080648</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.74870082679958</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.007432057370782</v>
+        <v>-6.041524413970636</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3215365793290426</v>
+        <v>-0.3004186948453385</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.754420121600547</v>
+        <v>-4.912300201568922</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.70045388363471</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.86883693948827</v>
+        <v>-5.905744141199095</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5643333355288526</v>
+        <v>-0.5541606162208313</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.842675335056622</v>
+        <v>-4.983483052119386</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.64213082894979</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.644277761146984</v>
+        <v>-5.707906352957773</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5203170133749695</v>
+        <v>-0.5074865565900779</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.692860113638751</v>
+        <v>-4.824058080415687</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.56565737857595</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.523226329072385</v>
+        <v>-5.594252071988749</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6042517668932753</v>
+        <v>-0.5790621762257944</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.658702295524687</v>
+        <v>-4.781913957568172</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.47279939772705</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.517963223330011</v>
+        <v>-5.606152975271878</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7067514058411487</v>
+        <v>-0.6924415188351422</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.562225115884008</v>
+        <v>-4.658741572433213</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.36498144876461</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.548769411916592</v>
+        <v>-5.654371926637955</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7515139892570101</v>
+        <v>-0.7229203998506804</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.36548708108139</v>
+        <v>-4.457539062361566</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.24900615685534</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.793124152154568</v>
+        <v>-5.894065807064276</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.648569212012518</v>
+        <v>-0.6133771019739583</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.243218064842511</v>
+        <v>-4.32096015911668</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.12283770323387</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.001134659703911</v>
+        <v>-6.106331313037181</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9774216747909934</v>
+        <v>-0.957272620717577</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.063591669854029</v>
+        <v>-4.151022068231076</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.9829672923588</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.516630991794034</v>
+        <v>-6.597593792567268</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9014077644919318</v>
+        <v>-0.8810623258758896</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.905318820800403</v>
+        <v>-3.980494823717594</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.82951687215023</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.969153347215454</v>
+        <v>-7.051909793478004</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9644079257663177</v>
+        <v>-0.9400431501778655</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.82899069523314</v>
+        <v>-3.900998360862633</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.67054069439497</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.534780106886545</v>
+        <v>-7.632854547473915</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.029018440290236</v>
+        <v>-0.9971124982649494</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.444613776102904</v>
+        <v>-3.531088436372505</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.50991735544908</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.952201998389297</v>
+        <v>-8.055565729324725</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.000293927855489</v>
+        <v>-0.9606242502450589</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.236354514799567</v>
+        <v>-3.341407152801577</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.34340389653731</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.429036760187802</v>
+        <v>-8.527111200775172</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.192868610354438</v>
+        <v>-1.166212681768683</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.865711421350302</v>
+        <v>-2.966286491780442</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.17213258949492</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.370870842015892</v>
+        <v>-9.438832986067291</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.117993730402606</v>
+        <v>-1.08768504932401</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.848979458318577</v>
+        <v>-2.961507801243212</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.99632146846907</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.18210920299776</v>
+        <v>-10.2326062150583</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.209666034900372</v>
+        <v>-1.178440892622856</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.659900420678369</v>
+        <v>-2.767401319311781</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.82527117785516</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.01861570846417</v>
+        <v>-11.05514323339258</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.308316536812778</v>
+        <v>-1.284802760909038</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.300922569061082</v>
+        <v>-2.407690298735358</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.65877765368577</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.22666867627592</v>
+        <v>-12.25492186580836</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.394097305031767</v>
+        <v>-1.367349730326121</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.179504552506914</v>
+        <v>-2.269631965269356</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.49213903288019</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.10131305992027</v>
+        <v>-13.12952697254419</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.488230962463778</v>
+        <v>-1.454164790469606</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.835975618242864</v>
+        <v>-1.933919135801817</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.32668199495281</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.3040898296868</v>
+        <v>-14.30380179902428</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.680805644962726</v>
+        <v>-1.635178969559311</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.593990584819241</v>
+        <v>-1.684798797329453</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.1678667589094</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.39444299495143</v>
+        <v>-15.37883696996409</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.734104409831393</v>
+        <v>-1.68667099663582</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.179959599752496</v>
+        <v>-1.274616949298175</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.02142010835641</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.78331375731026</v>
+        <v>-16.75917155087011</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.740716022766465</v>
+        <v>-1.675594908431719</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.867132115652293</v>
+        <v>-0.9530961761110665</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.885372319137131</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.47768031417792</v>
+        <v>-18.42258790381993</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.982216640984944</v>
+        <v>-1.916859865199047</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.6571577626766903</v>
+        <v>-0.7542764651566143</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.760311819087951</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.08375238068098</v>
+        <v>-20.00779083959329</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.200347498630942</v>
+        <v>-2.125420249467744</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3578153505034655</v>
+        <v>-0.4510718236450803</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.645877801538406</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.91226267246497</v>
+        <v>-21.82002739894501</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.399887286241689</v>
+        <v>-2.315494302123923</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5108512784204016</v>
+        <v>-0.5924686943357218</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.551620083059506</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.62641169892648</v>
+        <v>-23.51219444893526</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.495670573831757</v>
+        <v>-2.41043968233212</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.3351918511929629</v>
+        <v>-0.4085873009236792</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.478796137112699</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.69419691744585</v>
+        <v>-25.58623778821298</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.678714059861929</v>
+        <v>-2.5785186662142</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.3415416180712</v>
+        <v>-0.4037431488722406</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.420716466471221</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.94259045366684</v>
+        <v>-27.80940245685796</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.553473090877977</v>
+        <v>-2.452662358996687</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.4727003079396118</v>
+        <v>-0.5264049341963721</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.378539803789812</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.23623098850883</v>
+        <v>-30.09345942601981</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.050116506876014</v>
+        <v>-2.934210349818213</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8473365537556032</v>
+        <v>-0.8834058480845586</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.35235148292935</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.41664928837557</v>
+        <v>-32.28234844582514</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.11531617502781</v>
+        <v>-3.003416262639577</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.079685652287716</v>
+        <v>-1.130758725673289</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.343312242738552</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.64112318730472</v>
+        <v>-34.50078679314426</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.494560911444089</v>
+        <v>-3.356934623971865</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.312964304321591</v>
+        <v>-1.331398266722741</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.34621543360042</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.16539772900656</v>
+        <v>-37.0190388755389</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.762651996734114</v>
+        <v>-3.624200894182861</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.725463489955854</v>
+        <v>-1.743085729580817</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.350472300738938</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.7016910047171</v>
+        <v>-39.53958211093084</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.681532088326779</v>
+        <v>-3.562104101804554</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.207967218884827</v>
+        <v>-2.20283503617087</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.353897887494439</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.27639709696526</v>
+        <v>-42.10453443756192</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.856261962052455</v>
+        <v>-3.736624498684762</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.560830965075028</v>
+        <v>-2.544308478888769</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.350468567458675</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.54581687155006</v>
+        <v>-44.3907647289955</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.125636093020969</v>
+        <v>-3.996048479493564</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.157826882354895</v>
+        <v>-3.115656574901695</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.346782973667613</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.88344754394025</v>
+        <v>-46.73646025993619</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.285061064724667</v>
+        <v>-4.146138639271112</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.454419910931357</v>
+        <v>-3.437491563357005</v>
       </c>
     </row>
   </sheetData>
